--- a/document/13. ส่วนกลาง ขึ้นตรงผู้อำนวยการธนาคารออมสิน.xlsx
+++ b/document/13. ส่วนกลาง ขึ้นตรงผู้อำนวยการธนาคารออมสิน.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123248B2-01EE-46DE-8EB6-36C6E96D3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A50B9-CDC7-4134-BB07-BAC8B03A053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="6" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="ขึ้นตรงผู้อำนวยการฯ 1" sheetId="2" r:id="rId1"/>
@@ -1961,12 +1961,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -7430,12 +7430,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -12137,12 +12137,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -14875,12 +14875,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -18939,12 +18939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -27239,12 +27239,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -33697,12 +33697,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
